--- a/stability_stats_template.xlsx
+++ b/stability_stats_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10294643\Documents\R\stability-regression-app-2\stability-regression-shiny-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5F4B05-3FE2-42D3-93F9-421E8A2D1BD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236D44C6-CFDA-4AC5-99ED-7F7AC282F205}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="765" windowWidth="17760" windowHeight="11385" xr2:uid="{AC9638E3-476B-4822-ACD0-A879084F2FD9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AC9638E3-476B-4822-ACD0-A879084F2FD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,12 +109,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBDD7EE"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFC9388"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -199,11 +193,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -523,21 +517,21 @@
   <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -560,12 +554,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="5">
         <v>0</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>30</v>
       </c>
       <c r="D2" s="5"/>
@@ -573,12 +567,12 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="8">
         <v>0.5</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>30</v>
       </c>
       <c r="D3" s="5"/>
@@ -586,12 +580,12 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>30</v>
       </c>
       <c r="D4" s="5"/>
@@ -599,12 +593,12 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="8">
         <v>1.5</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>30</v>
       </c>
       <c r="D5" s="5"/>
@@ -612,12 +606,12 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="8">
         <v>2</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>30</v>
       </c>
       <c r="D6" s="5"/>
@@ -625,12 +619,12 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="8">
         <v>3</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>30</v>
       </c>
       <c r="D7" s="5"/>
@@ -638,12 +632,12 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="8">
         <v>4</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>30</v>
       </c>
       <c r="D8" s="5"/>
@@ -651,12 +645,12 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="8">
         <v>5</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>30</v>
       </c>
       <c r="D9" s="5"/>
@@ -664,12 +658,12 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5">
         <v>0</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>60</v>
       </c>
       <c r="D10" s="6"/>
@@ -677,12 +671,12 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5">
         <v>0.5</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>60</v>
       </c>
       <c r="D11" s="6"/>
@@ -690,12 +684,12 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5">
         <v>1</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>60</v>
       </c>
       <c r="D12" s="6"/>
@@ -703,12 +697,12 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5">
         <v>1.5</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>60</v>
       </c>
       <c r="D13" s="6"/>
@@ -716,12 +710,12 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5">
         <v>2</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>60</v>
       </c>
       <c r="D14" s="6"/>
@@ -729,12 +723,12 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5">
         <v>3</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>60</v>
       </c>
       <c r="D15" s="6"/>
@@ -742,12 +736,12 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5">
         <v>4</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>60</v>
       </c>
       <c r="D16" s="6"/>
@@ -755,12 +749,12 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5">
         <v>5</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>60</v>
       </c>
       <c r="D17" s="6"/>
@@ -768,12 +762,12 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="5">
         <v>0</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>125</v>
       </c>
       <c r="D18" s="5"/>
@@ -781,12 +775,12 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="5">
         <v>0.5</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>125</v>
       </c>
       <c r="D19" s="5"/>
@@ -794,12 +788,12 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="5">
         <v>1</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <v>125</v>
       </c>
       <c r="D20" s="5"/>
@@ -807,12 +801,12 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="5">
         <v>1.5</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <v>125</v>
       </c>
       <c r="D21" s="5"/>
@@ -820,12 +814,12 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="5">
         <v>2</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="10">
         <v>125</v>
       </c>
       <c r="D22" s="5"/>
@@ -833,12 +827,12 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="5">
         <v>3</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="10">
         <v>125</v>
       </c>
       <c r="D23" s="5"/>
@@ -846,12 +840,12 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="5">
         <v>4</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="10">
         <v>125</v>
       </c>
       <c r="D24" s="5"/>
@@ -859,12 +853,12 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="5">
         <v>5</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="10">
         <v>125</v>
       </c>
       <c r="D25" s="5"/>
@@ -872,12 +866,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5">
         <v>0</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="10">
         <v>250</v>
       </c>
       <c r="D26" s="6"/>
@@ -885,12 +879,12 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5">
         <v>0.5</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="10">
         <v>250</v>
       </c>
       <c r="D27" s="6"/>
@@ -898,12 +892,12 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5">
         <v>1</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="10">
         <v>250</v>
       </c>
       <c r="D28" s="6"/>
@@ -911,12 +905,12 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5">
         <v>1.5</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="10">
         <v>250</v>
       </c>
       <c r="D29" s="6"/>
@@ -924,12 +918,12 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5">
         <v>2</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="10">
         <v>250</v>
       </c>
       <c r="D30" s="6"/>
@@ -937,12 +931,12 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5">
         <v>3</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="10">
         <v>250</v>
       </c>
       <c r="D31" s="6"/>
@@ -950,12 +944,12 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="5">
         <v>4</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="10">
         <v>250</v>
       </c>
       <c r="D32" s="6"/>
@@ -963,12 +957,12 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="5">
         <v>5</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="10">
         <v>250</v>
       </c>
       <c r="D33" s="6"/>
@@ -976,12 +970,12 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="5">
         <v>0</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="10">
         <v>500</v>
       </c>
       <c r="D34" s="5"/>
@@ -989,12 +983,12 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="5">
         <v>0.5</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="10">
         <v>500</v>
       </c>
       <c r="D35" s="5"/>
@@ -1002,12 +996,12 @@
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="5">
         <v>1</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="10">
         <v>500</v>
       </c>
       <c r="D36" s="5"/>
@@ -1015,12 +1009,12 @@
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="5">
         <v>1.5</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="10">
         <v>500</v>
       </c>
       <c r="D37" s="5"/>
@@ -1028,12 +1022,12 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="5">
         <v>2</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="10">
         <v>500</v>
       </c>
       <c r="D38" s="5"/>
@@ -1041,12 +1035,12 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="5">
         <v>3</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="10">
         <v>500</v>
       </c>
       <c r="D39" s="5"/>
@@ -1054,12 +1048,12 @@
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="5">
         <v>4</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="10">
         <v>500</v>
       </c>
       <c r="D40" s="5"/>
@@ -1067,12 +1061,12 @@
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="5">
         <v>5</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="10">
         <v>500</v>
       </c>
       <c r="D41" s="5"/>
@@ -1080,12 +1074,12 @@
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="5">
         <v>0</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="10">
         <v>1000</v>
       </c>
       <c r="D42" s="6"/>
@@ -1093,12 +1087,12 @@
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="5">
         <v>0.5</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="10">
         <v>1000</v>
       </c>
       <c r="D43" s="6"/>
@@ -1106,12 +1100,12 @@
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="5">
         <v>1</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="10">
         <v>1000</v>
       </c>
       <c r="D44" s="6"/>
@@ -1119,12 +1113,12 @@
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="5">
         <v>1.5</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="10">
         <v>1000</v>
       </c>
       <c r="D45" s="6"/>
@@ -1132,12 +1126,12 @@
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="5">
         <v>2</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="10">
         <v>1000</v>
       </c>
       <c r="D46" s="6"/>
@@ -1145,12 +1139,12 @@
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="5">
         <v>3</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="10">
         <v>1000</v>
       </c>
       <c r="D47" s="6"/>
@@ -1158,12 +1152,12 @@
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="5">
         <v>4</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="10">
         <v>1000</v>
       </c>
       <c r="D48" s="6"/>
@@ -1171,12 +1165,12 @@
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="5">
         <v>5</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="10">
         <v>1000</v>
       </c>
       <c r="D49" s="6"/>
@@ -1184,7 +1178,7 @@
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="5">
         <v>0</v>
@@ -1197,7 +1191,7 @@
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="5">
         <v>0.5</v>
@@ -1210,7 +1204,7 @@
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="5">
         <v>1</v>
@@ -1223,7 +1217,7 @@
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="5">
         <v>1.5</v>
@@ -1236,7 +1230,7 @@
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="5">
         <v>2</v>
@@ -1249,7 +1243,7 @@
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="5">
         <v>3</v>
@@ -1262,7 +1256,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="5">
         <v>4</v>
@@ -1275,7 +1269,7 @@
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="5">
         <v>5</v>
@@ -1288,33 +1282,33 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-    </row>
-    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-    </row>
-    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-    </row>
-    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-    </row>
-    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-    </row>
-    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
+    <row r="58" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+    </row>
+    <row r="59" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+    </row>
+    <row r="60" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+    </row>
+    <row r="61" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+    </row>
+    <row r="62" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+    </row>
+    <row r="63" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G57">
